--- a/outputs-r202/o__Selenomonadales.xlsx
+++ b/outputs-r202/o__Selenomonadales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>f__Selenomonadaceae</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -771,6 +846,11 @@
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Selenomonadaceae</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>f__Selenomonadaceae</t>
         </is>

--- a/outputs-r202/o__Selenomonadales.xlsx
+++ b/outputs-r202/o__Selenomonadales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,7 +729,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG633.fasta</t>
+          <t>RUG762.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -755,7 +755,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG643.fasta</t>
+          <t>hRUG860.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -773,84 +773,6 @@
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>f__Selenomonadaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>RUG758.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>f__Selenomonadaceae</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>f__Selenomonadaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>RUG762.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>f__Selenomonadaceae</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>f__Selenomonadaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>hRUG860.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>f__Selenomonadaceae</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
         <is>
           <t>f__Selenomonadaceae</t>
         </is>
